--- a/仕様書/ゲーム画面.xlsx
+++ b/仕様書/ゲーム画面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,15 +154,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>530673</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>287279</xdr:colOff>
+      <xdr:colOff>242455</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>225136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -184,8 +184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44824" y="765997"/>
-          <a:ext cx="6853926" cy="3671532"/>
+          <a:off x="0" y="900545"/>
+          <a:ext cx="6927273" cy="3740727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1355,12 +1355,17 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="42" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.8">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
